--- a/React+Node技术体系.xlsx
+++ b/React+Node技术体系.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>React</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MongoSkin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Karma/mocha?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关键技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Router</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,14 +266,34 @@
   </si>
   <si>
     <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoSkin/Moogose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React-Router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端共同渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,26 +409,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +436,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -478,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,6 +557,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -719,14 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -734,22 +748,22 @@
     <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="27.95" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -760,8 +774,8 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,8 +784,8 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -780,8 +794,8 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,18 +804,18 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -812,225 +826,227 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>60</v>
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>62</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1051,14 +1067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,64 +1083,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/React+Node技术体系.xlsx
+++ b/React+Node技术体系.xlsx
@@ -277,15 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MongoSkin/Moogose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>React-Router</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前后端共同渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MongoSkin/Mongoose</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +737,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -862,7 +862,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1"/>
     </row>
